--- a/CooperDi/12_hw_VAR1/4.xlsx
+++ b/CooperDi/12_hw_VAR1/4.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\CooperDi\12_hw_todo\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\GitHub repos\ICT_EGE\CooperDi\12_hw_VAR1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1B744D91-7A18-49F4-B08C-C6741A3E3FBF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A1016A6C-17BC-4438-9A79-BD61796D95D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13740" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="20">
   <si>
     <t>Буква</t>
   </si>
@@ -88,6 +88,12 @@
   </si>
   <si>
     <t>ОТВЕТ:</t>
+  </si>
+  <si>
+    <t>Другой подход к подсчёту частот</t>
+  </si>
+  <si>
+    <t>ЕИК</t>
   </si>
 </sst>
 </file>
@@ -273,8 +279,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>58035</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="2" name="Рукописный ввод 1">
@@ -293,7 +299,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="2" name="Рукописный ввод 1">
@@ -338,8 +344,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>495</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="32" name="Рукописный ввод 31">
@@ -358,7 +364,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="32" name="Рукописный ввод 31">
@@ -403,8 +409,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>1395</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="33" name="Рукописный ввод 32">
@@ -423,7 +429,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="33" name="Рукописный ввод 32">
@@ -468,8 +474,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>10290</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="34" name="Рукописный ввод 33">
@@ -488,7 +494,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="34" name="Рукописный ввод 33">
@@ -533,8 +539,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>85155</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="35" name="Рукописный ввод 34">
@@ -553,7 +559,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="35" name="Рукописный ввод 34">
@@ -598,8 +604,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>167430</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="38" name="Рукописный ввод 37">
@@ -618,7 +624,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="38" name="Рукописный ввод 37">
@@ -663,8 +669,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>175770</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="45" name="Рукописный ввод 44">
@@ -683,7 +689,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="45" name="Рукописный ввод 44">
@@ -728,8 +734,8 @@
       <xdr:row>14</xdr:row>
       <xdr:rowOff>105750</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="48" name="Рукописный ввод 47">
@@ -748,7 +754,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="48" name="Рукописный ввод 47">
@@ -793,8 +799,8 @@
       <xdr:row>5</xdr:row>
       <xdr:rowOff>163335</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="49" name="Рукописный ввод 48">
@@ -813,7 +819,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="49" name="Рукописный ввод 48">
@@ -858,8 +864,8 @@
       <xdr:row>7</xdr:row>
       <xdr:rowOff>147735</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="50" name="Рукописный ввод 49">
@@ -878,7 +884,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="50" name="Рукописный ввод 49">
@@ -923,8 +929,8 @@
       <xdr:row>2</xdr:row>
       <xdr:rowOff>179715</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="51" name="Рукописный ввод 50">
@@ -943,7 +949,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="51" name="Рукописный ввод 50">
@@ -988,8 +994,8 @@
       <xdr:row>16</xdr:row>
       <xdr:rowOff>166830</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="54" name="Рукописный ввод 53">
@@ -1008,7 +1014,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="54" name="Рукописный ввод 53">
@@ -1053,8 +1059,8 @@
       <xdr:row>6</xdr:row>
       <xdr:rowOff>152835</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="55" name="Рукописный ввод 54">
@@ -1073,7 +1079,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="55" name="Рукописный ввод 54">
@@ -1118,8 +1124,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>141450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="59" name="Рукописный ввод 58">
@@ -1138,7 +1144,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="59" name="Рукописный ввод 58">
@@ -1183,8 +1189,8 @@
       <xdr:row>15</xdr:row>
       <xdr:rowOff>176250</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="64" name="Рукописный ввод 63">
@@ -1203,7 +1209,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="64" name="Рукописный ввод 63">
@@ -1248,8 +1254,8 @@
       <xdr:row>9</xdr:row>
       <xdr:rowOff>173730</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="69" name="Рукописный ввод 68">
@@ -1268,7 +1274,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="69" name="Рукописный ввод 68">
@@ -1313,8 +1319,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>161370</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="75" name="Рукописный ввод 74">
@@ -1333,7 +1339,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="75" name="Рукописный ввод 74">
@@ -1378,8 +1384,8 @@
       <xdr:row>11</xdr:row>
       <xdr:rowOff>154170</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="76" name="Рукописный ввод 75">
@@ -1398,7 +1404,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="76" name="Рукописный ввод 75">
@@ -1443,8 +1449,8 @@
       <xdr:row>12</xdr:row>
       <xdr:rowOff>1830</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="77" name="Рукописный ввод 76">
@@ -1463,7 +1469,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="77" name="Рукописный ввод 76">
@@ -1508,8 +1514,8 @@
       <xdr:row>4</xdr:row>
       <xdr:rowOff>125595</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="80" name="Рукописный ввод 79">
@@ -1528,7 +1534,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="80" name="Рукописный ввод 79">
@@ -1573,8 +1579,8 @@
       <xdr:row>19</xdr:row>
       <xdr:rowOff>105450</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="85" name="Рукописный ввод 84">
@@ -1593,7 +1599,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="85" name="Рукописный ввод 84">
@@ -1638,8 +1644,8 @@
       <xdr:row>8</xdr:row>
       <xdr:rowOff>105915</xdr:rowOff>
     </xdr:to>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
+      <mc:Choice Requires="xdr14">
         <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43">
           <xdr14:nvContentPartPr>
             <xdr14:cNvPr id="86" name="Рукописный ввод 85">
@@ -1658,7 +1664,7 @@
           </xdr14:xfrm>
         </xdr:contentPart>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:pic>
           <xdr:nvPicPr>
             <xdr:cNvPr id="86" name="Рукописный ввод 85">
@@ -2027,7 +2033,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">5002 247,'-24'2,"0"2,0 1,1 0,0 2,0 1,-43 21,16-8,-266 119,35-15,54-25,-151 58,203-97,-250 89,275-81,76-33,-47 22,102-47</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1189.87">2541 1199,'1'-1,"0"1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0 1,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,0 1,1 0,-1-1,0 1,-4 2,4-1,-1-1,-1 0,1-1,0 1,-1 0,1-1,-1 0,0 0,0 0,-6 2,9-4,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,-2-1,0-2,1 0,-1-1,1 1,0 0,0-1,1 1,-1-1,1 0,0 1,1-1,0 1,-1-1,2 1,-1 0,1-1,-1 1,4-6,-4 8,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,0 0,1 1,-1-1,0 1,0 0,1-1,-1 1,0 1,6 0,-8-1,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,0-1,1 3,-5 25,0-20,0 0,0 0,0-1,-9 11,11-15,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1-1,-1 0,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,-4-1,4-1,0 1,1 0,0-1,-1 0,1 1,0-1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 1,0-1,0 0,1-4,-1 4,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,2-1,-2 1,-1-1,0 1,0-1,0 1,1 0,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 4,-1-5,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,-1 0,2-1,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 0,0-7</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1189.86">2541 1199,'1'-1,"0"1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,0 0,0 1,0-1,-1 1,1-1,0 1,0-1,0 1,0 0,0 0,-1-1,1 1,0 0,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1 0,0 0,1 0,-1 1,0 1,0 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,-1-1,0 1,1 0,-1-1,0 1,-4 2,4-1,-1-1,-1 0,1-1,0 1,-1 0,1-1,-1 0,0 0,0 0,-6 2,9-4,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1-1,0 1,0 0,-1 0,1 0,0-1,0 1,-1-1,1 1,0-1,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 0,0 0,1 0,-1 0,0 0,1-1,-2-1,0-2,1 0,-1-1,1 1,0 0,0-1,1 1,-1-1,1 0,0 1,1-1,0 1,-1-1,2 1,-1 0,1-1,-1 1,4-6,-4 8,1 0,-1 0,1 0,0 0,0 1,0-1,0 1,0-1,1 1,-1 0,1 0,-1 0,1 0,0 0,0 0,0 1,0 0,0-1,0 1,0 0,0 0,1 1,-1-1,0 1,0 0,1-1,-1 1,0 1,6 0,-8-1,0 0,0 0,0 1,0-1,0 0,0 0,-1 1,1-1,0 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,0-1,-1 1,1 0,-1-1,1 1,-1 0,1 0,-1 0,0-1,1 3,-5 25,0-20,0 0,0 0,0-1,-9 11,11-15,0-1,0 1,0-1,0 0,0 0,0 0,-1 0,1 0,-1 0,0 0,1-1,-1 0,0 1,0-1,0 0,0 0,0-1,0 1,0-1,0 1,0-1,0 0,0 0,0 0,-4-1,4-1,0 1,1 0,0-1,-1 0,1 1,0-1,0 0,0 0,0 0,0-1,0 1,1 0,-1-1,1 1,0-1,-1 1,1-1,0 0,1 1,-1-1,0 0,1 0,-1 0,1 1,0-1,0 0,1-4,-1 4,0 0,1 0,-1 1,1-1,0 0,0 1,0-1,0 0,0 1,1-1,-1 1,1 0,-1 0,1-1,0 1,0 0,0 0,0 1,0-1,0 0,1 1,-1-1,0 1,1 0,-1 0,1 0,0 0,-1 0,1 0,0 1,2-1,-2 1,-1-1,0 1,0-1,0 1,1 0,-1 0,0 0,0 1,1-1,-1 0,0 1,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 1,0 0,-1-1,1 1,-1 0,0 0,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 4,-1-5,0-1,0 1,0 0,0 0,0 0,-1 0,1 0,0-1,0 1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1-1,-1 1,-1 0,2-1,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 0,0 0,-1-1,1 1,-1 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,-1 0,1 0,0 0,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,0-1,-1 1,1-1,0 1,0 0,0-1,0 1,0 0,0-1,-1 1,1 0,0-1,0 0,0-7</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2792.57">5055 194,'13'10,"1"0,0-1,0 0,1-1,1-1,27 9,-2 1,659 267,-476-198,110 36,79 21,-187-61,140 34,-335-106,-5-1</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3800.3">7701 1173,'0'3,"0"0,0 0,-1 0,1 0,-1 0,0 0,1 0,-1-1,-1 1,1 0,0 0,-1-1,1 1,-1-1,0 1,0-1,0 1,0-1,0 0,-3 2,0-1,0 0,0 0,-1-1,1 1,0-1,-1 0,0-1,1 1,-1-1,-6 0,0 0,-1 0,1-2,0 1,0-1,0-1,0 0,0-1,0 0,-20-8,28 8,0 1,-1-1,1 0,0 0,1 0,-1-1,1 1,-1-1,1 0,0 0,0 0,1 0,-1-1,1 1,-2-6,3 8,0-1,1 1,-1-1,1 1,0-1,-1 1,1-1,0 1,0-1,1 1,-1-1,1 1,-1-1,1 1,0-1,-1 1,1 0,1-1,-1 1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,-1 1,1-1,0 0,4-1,39-20,-44 22,1 0,0 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,0 0,0 0,-1 0,1 0,0 1,0-1,0 1,-1-1,1 1,0-1,-1 1,1 0,-1 0,4 2,-5-2,1 0,-1 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,0 0,1 0,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,0 0,-1 1,-41 20,23-16,15-5,12-6,-6 5,0 1,0-1,0 0,1 1,-1-1,0 1,1-1,-1 1,0-1,1 1,-1 0,0 0,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 1,0-1,1 0,-1 1,0-1,0 1,1-1,-1 1,0 0,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,1 2,-2-1,1 0,0-1,-1 1,0 0,1 0,-1 0,0-1,0 1,0 0,0 0,0 0,0 0,-1-1,1 1,0 0,-1 0,0-1,1 1,-1 0,0-1,0 1,0-1,0 1,0-1,0 1,0-1,-1 0,1 1,-2 0,-17 10,1-2</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="4619.76">6669 326,'1'-6,"1"1,0 0,0 0,1 0,-1 0,1 0,0 1,1-1,-1 1,1 0,0 0,5-5,1-2,68-83,-43 49,54-53,-88 97,-1 1,1-1,0 0,-1 0,1 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,-1-1,1 1,0 0,0-1,0 1,0 0,0 0,0 0,0 0,0 0,0 0,0 0,2 0,-3 1,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,0 0,1 0,-1 1,0-1,0 0,0 0,-1 0,1 2,-13 67,11-63,-126 513,122-496</inkml:trace>
@@ -2041,9 +2047,9 @@
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="15203.44">7754 1199,'-2'0,"0"0,0 1,0-1,1 1,-1-1,0 1,1 0,-1 0,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,-1 0,1 1,-1 1,-21 34,16-25,-264 464,129-222,20-10,-24 40,87-187,50-84</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16142.67">6907 2734,'-2'2,"0"-1,0 1,0 0,0-1,0 1,0-1,-1 0,1 0,0 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,-1 0,0 0,1 0,-1 0,1 0,-5-1,3 0,-1-1,1 1,0-1,0 0,-1-1,1 1,1-1,-1 1,0-1,1 0,-5-5,3 3,0 0,1 0,0-1,0 1,1-1,-1 0,1 0,0 0,1 0,-1-1,1 1,1-1,-1 1,1-1,0 0,1-12,0 18,0-1,0 0,0 0,0 0,1 0,-1 1,1-1,-1 0,1 0,0 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 1,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 0,-1 1,1-1,0 1,0 0,0 0,0-1,-1 1,1 1,0-1,0 0,0 0,0 1,-1-1,1 1,0-1,0 1,-1 0,1-1,0 1,-1 0,1 0,2 2,-3-1,1-1,0 0,0 1,0-1,-1 1,1 0,-1-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,-1 1,1-1,-1 0,0 0,0 1,0-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,-1 0,1 0,0-1,-1 1,0 0,1-1,-3 2,1-1,0 1,0-1,-1-1,1 1,0 0,-1-1,1 0,-1 1,1-1,-1-1,0 1,0-1,1 1,-1-1,-7-1,10 1,-1 0,0 0,1 0,-1-1,1 1,-1-1,0 1,1-1,0 0,-1 0,1 1,-1-1,1 0,0 0,-1 0,1-1,0 1,0 0,0 0,0-1,0 1,0 0,0-1,1 1,-1-1,1 1,-1-1,1 0,-1 1,1-1,0 1,-1-1,1 0,0 1,0-1,0 0,1-2,-1 3,0-1,0 0,1 0,-1 0,1 1,-1-1,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,1 1,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 1,0-1,-1 0,4 0,-4 0,1 1,-1 0,1 0,-1 1,1-1,-1 0,1 0,-1 1,1-1,-1 1,0-1,1 1,-1 0,0-1,1 1,-1 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 1,0-1,0 0,-1 0,1 1,-1-1,1 1,-1-1,1 0,-1 1,1 1,0 0,0 0,-1 0,1 1,-1-1,1 0,-1 0,0 0,0 0,0 1,-1-1,1 0,-1 0,0 0,0 0,0 0,-1 4,1-7,1 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,-1 0,1 0,0 1,-1-1,1 0,0 0,0 0,-1 0,1 0,0 0,0 0,-1 0,1 0,0 0,-1-1,1 1,0 0,0 0,-1 0,1 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,-1-1,1 1,0 0,0 0,0 0,0-1,0 1,-1 0,1 0,0-1,0 1,0 0,0-1,0 1,0 0,0 0,0-1,0 1,0-1,-4-10</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="16967.06">6933 1570,'-10'1,"-1"0,1 0,0 2,0-1,0 1,0 1,1-1,-1 2,1-1,0 1,0 1,1 0,-1 0,-14 14,15-12,0 1,0-1,1 1,0 1,0-1,1 1,1 0,-1 1,2-1,-1 1,2 0,-1 0,-1 14,3-14,1 1,1-1,0 1,0 0,1-1,1 1,4 19,-5-29,0 1,0-1,0 0,0 1,0-1,1 0,-1 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,4 1,-4-2,1 0,0 0,0-1,0 1,0-1,0 0,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 1,0-1,0-1,4-1,-1-1,0 0,-1 0,1-1,-1 1,0-1,-1 0,1-1,-1 1,0-1,-1 0,1 0,-1 0,0 0,0 0,-1-1,0 1,0-1,1-7,3-19,0 0,0-41,-6 72,2-25</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19024.69">7780 1067,'0'0,"-1"0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 1,9 15,15 13,12-1,1-2,2-1,0-3,1 0,50 17,-25-10,103 49,3-8,187 49,-282-96,0 4,118 59,67 30,-8-5,-86-39,-117-53,0 2,-1 2,-1 2,84 60,-64-36,138 75,-144-90,200 116,-141-69,-98-66</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="19024.68">7780 1067,'0'0,"-1"0,1 0,0 0,0 0,0 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,0-1,-1 0,1 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 0,0 1,0-1,0 0,0 0,0 0,0 1,0-1,0 0,1 0,-1 0,0 0,0 0,0 1,9 15,15 13,12-1,1-2,2-1,0-3,1 0,50 17,-25-10,103 49,3-8,187 49,-282-96,0 4,118 59,67 30,-8-5,-86-39,-117-53,0 2,-1 2,-1 2,84 60,-64-36,138 75,-144-90,200 116,-141-69,-98-66</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="20529.93">11008 2734,'-3'0,"0"0,0 0,0-1,1 1,-1-1,0 1,0-1,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 1,1-1,0 0,-1 0,1 0,0 0,0 0,1 0,-1 0,0-1,1 1,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,1 1,-1-1,1 0,0 0,-1 0,2 0,-1 1,0-1,0 0,1 0,-1 0,1 0,0 1,0-1,0 0,0 1,1-1,-1 1,1-1,-1 1,1 0,0 0,0 0,0 0,0 0,0 0,1 0,-1 1,0-1,6-2,-3 3,0-1,0 1,0 0,0 0,1 1,-1-1,0 1,0 1,1-1,-1 1,0-1,0 2,7 1,-10-3,-1 1,1-1,-1 1,1 0,-1 0,1-1,-1 1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 1,0-1,0 0,0 1,-1-1,1 1,0-1,-1 1,0 0,1-1,-1 1,0-1,0 1,0 0,0-1,0 1,0 0,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,0-1,1 1,-1-1,0 0,0 1,-2 1,-1 2,1 0,-1 0,0-1,-1 1,1-1,-1 0,0 0,0-1,0 1,0-1,-1 0,1-1,-1 1,0-1,1 0,-1-1,0 1,0-1,0 0,-1-1,1 0,0 0,0 0,-8-1,14 1,-1 0,1 0,-1 0,0 0,1-1,-1 1,1 0,-1 0,1 0,-1 0,1-1,-1 1,1 0,-1-1,1 1,-1 0,1-1,-1 1,1-1,0 1,-1 0,1-1,0 1,-1-1,1 1,0-1,-1 1,1-1,0 0,0 1,0-2,12-11,28-6,-27 16,0 1,0 0,1 1,17 1,-27 0,-1 1,1-1,-1 1,0 0,1-1,-1 2,0-1,0 0,1 1,2 1,-5-2,0 0,0 0,0 0,0 0,0 0,0 0,0 0,0 0,-1 1,1-1,0 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 0,0 1,-1 1,0 1,0-1,-1 1,1-1,-1 0,0 1,0-1,0 0,0 0,-1 0,1-1,-1 1,0-1,0 1,1-1,-2 0,1 0,0 0,0-1,-1 1,1-1,0 1,-1-1,0 0,1-1,-1 1,1 0,-1-1,0 0,-4 0,5 0,-1 0,0 0,0 0,1 0,-1 0,0-1,0 0,1 0,-1 0,1 0,-1 0,1-1,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0-1,1 0,0 0,-1 0,1 0,0-1,1 1,-3-5,1-4,1-1,0 1,1 0,0-1,1 0,0 1,1-1,0 1,1-1,5-14,-7 26,0-1,1 1,-1-1,1 1,0 0,0-1,-1 1,1 0,0 0,0-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 1,1-1,-1 0,0 0,1 1,-1-1,1 1,-1-1,1 1,-1 0,1 0,-1-1,1 1,-1 0,1 0,-1 1,3-1,-2 1,0 0,0 0,0 0,-1 0,1 0,0 0,-1 1,1-1,-1 0,1 1,-1 0,0-1,1 1,-1 0,0-1,0 1,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 3,-1 1,-1 0,0-1,0 1,0 0,0-1,-1 1,0-1,0 1,-1-1,-5 9,7-11,-1-1,1 1,-1-1,0 0,0 0,0 0,0 0,-1 0,1 0,-5 2,6-3,0-1,-1 1,1-1,0 0,0 0,-1 1,1-1,0 0,-1 0,1 0,0 0,-1 0,1-1,0 1,0 0,-1-1,1 1,0 0,0-1,-1 0,1 1,0-1,0 0,-1 0,1 0,0 1,0-1,0 0,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,1 1,-1-1,0 0,1 0,0 0,-1 0,1 0,0 0,-1 0,1 0,0 0,0 0,0 0,0 0,0-1,0 1,0 0,0 0,0 0,1 0,-1 0,0 0,1 0,-1 0,0 0,1 0,0 1,-1-1,1 0,-1 0,1 0,0 0,0 1,-1-1,1 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0-1,0 1,2 0,-2-1,0 0,0 1,0 0,0-1,0 1,1 0,-1-1,0 1,0 0,0 0,1 0,-1 0,0 0,0 0,0 0,1 1,-1-1,0 0,0 1,0-1,0 1,0-1,0 1,0-1,0 1,0 0,0 0,0-1,0 1,0 0,0 0,-1 0,1 0,0 0,-1 0,1 0,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 0,-1 0,0 0,0 1,0-1,0 0,0 0,0 0,-1 3,0-2,0 1,0 0,0 0,0-1,0 1,-1 0,1-1,-1 0,0 1,0-1,0 0,0 0,0 0,0 0,0 0,-1 0,1-1,-1 1,-3 1,-14 7</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22546.11">7701 1146,'-3'1,"0"0,0 0,1 0,-1 0,0 1,1-1,-1 1,1 0,-1 0,-2 3,-19 12,23-17,0 1,0-1,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,-2-1,1-1,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1-3,0-1,1 0,0 1,0-1,1 0,0 0,0 0,0 1,1-1,0 0,0 1,4-7,-4 9,1 1,0 0,-1 0,1 0,1 1,-1-1,0 1,1 0,-1-1,1 2,0-1,-1 0,1 1,0 0,0-1,0 2,0-1,0 0,1 1,6 0,-8 0,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1 5,-1-3,0 1,0 0,-1 0,1 0,-1 0,0 0,-1 0,0 0,1-1,-2 1,1 0,-1 0,0-1,0 1,-1-1,1 1,-1-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,-10 6,4-3,0-1,-1-1,1 0,-1 0,0-1,-1 0,1-1,-1 0,1-1,-1-1,0 0,-14 0,19-1,1 0,-1 0,0-1,0 0,1 0,-1-1,0 1,1-2,0 1,-1-1,-10-6,13 6,1 0,0 0,-1 0,2-1,-1 1,0-1,1 1,-1-1,1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,1-1,-1 1,0-1,1-5,0 7,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 1,0 0,0 0,6 0,2 0,1 1,-1 0,1 1,-1 0,0 0,0 1,0 1,0 0,17 9,-20-9,-1 1,0 0,0 1,-1-1,0 1,0 1,0-1,-1 1,6 9,-10-15,0 1,0-1,-1 1,1-1,0 1,-1-1,0 1,1 0,-1-1,0 1,0-1,1 1,-1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,-1 1,0 1,0-1,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 0,-1 0,1 1,0-1,-1 0,1-1,-1 1,1 0,-1-1,1 0,-4 1,-5 1,-1 0,1-1,-1-1,1 0,-1 0,1-1,-16-3,24 3,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,0-5,-1-5,1-1,0 1,1-1,1 1,4-19,-5 29,-1 0,1 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,3 0,-4 1,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 0,-1 3,1 5,0-1,0 0,-1 0,-1 0,1 0,-6 16,5-21,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,-1 1,1-1,-7 3,9-5,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1-2,-1 1,1 1,-1-1,1 0,-1 0,1 1,0-1,0 0,1 0,-1 0,0 0,1 1,0-1,0 0,-1 1,2-1,-1 0,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,0 0,4-3,-2 3,0-1,-1 2,2-1,-1 0,0 1,0 0,0-1,1 2,-1-1,0 0,1 1,-1 0,0 0,1 0,-1 1,6 1,14 3</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="22546.1">7701 1146,'-3'1,"0"0,0 0,1 0,-1 0,0 1,1-1,-1 1,1 0,-1 0,-2 3,-19 12,23-17,0 1,0-1,-1 1,1-1,-1 0,1 1,0-1,-1 0,1 0,-1 0,1 0,0 0,-1 0,1 0,0-1,-1 1,1 0,-1-1,1 1,0-1,0 0,-1 1,1-1,0 0,0 0,-2-1,1-1,0 1,1-1,-1 0,1 1,0-1,0 0,0 0,0 0,0 0,0 0,1 0,-1-3,0-1,1 0,0 1,0-1,1 0,0 0,0 0,0 1,1-1,0 0,0 1,4-7,-4 9,1 1,0 0,-1 0,1 0,1 1,-1-1,0 1,1 0,-1-1,1 2,0-1,-1 0,1 1,0 0,0-1,0 2,0-1,0 0,1 1,6 0,-8 0,0 0,0 0,0 1,-1-1,1 1,0 0,0 0,0 0,-1 0,1 0,-1 1,1-1,-1 1,1-1,-1 1,0 0,0 0,0 0,0 0,0 0,0 1,-1-1,1 1,-1-1,0 1,1-1,-1 1,0 0,1 5,-1-3,0 1,0 0,-1 0,1 0,-1 0,0 0,-1 0,0 0,1-1,-2 1,1 0,-1 0,0-1,0 1,-1-1,1 1,-1-1,0 0,-1 0,1 0,-1-1,0 1,0-1,0 0,-10 6,4-3,0-1,-1-1,1 0,-1 0,0-1,-1 0,1-1,-1 0,1-1,-1-1,0 0,-14 0,19-1,1 0,-1 0,0-1,0 0,1 0,-1-1,0 1,1-2,0 1,-1-1,-10-6,13 6,1 0,0 0,-1 0,2-1,-1 1,0-1,1 1,-1-1,1 0,0 0,1 0,-1 0,1-1,-1 1,1 0,1-1,-1 1,0-1,1-5,0 7,0 0,0 0,0-1,0 1,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0 0,1 0,-1 0,1 0,0 1,0-1,0 1,0-1,0 1,0 0,1 0,-1 0,1 0,-1 0,1 1,0-1,0 1,0-1,0 1,0 0,0 0,0 1,0-1,0 0,0 1,0 0,0 0,6 0,2 0,1 1,-1 0,1 1,-1 0,0 0,0 1,0 1,0 0,17 9,-20-9,-1 1,0 0,0 1,-1-1,0 1,0 1,0-1,-1 1,6 9,-10-15,0 1,0-1,-1 1,1-1,0 1,-1-1,0 1,1 0,-1-1,0 1,0-1,1 1,-1 0,-1-1,1 1,0 0,0-1,-1 1,1-1,-1 1,0 1,0-1,-1 0,0 0,0 0,0-1,0 1,0 0,0-1,0 0,-1 0,1 1,0-1,-1 0,1-1,-1 1,1 0,-1-1,1 0,-4 1,-5 1,-1 0,1-1,-1-1,1 0,-1 0,1-1,-16-3,24 3,0 0,0 0,0 0,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,-1-1,1 1,0-1,0 1,0-1,0 0,0 0,1 0,-1 0,1 0,0 0,0 0,0 0,0-1,1 1,-1 0,1 0,0-5,-1-5,1-1,0 1,1-1,1 1,4-19,-5 29,-1 0,1 1,0-1,-1 0,1 1,0-1,1 1,-1-1,0 1,1-1,0 1,-1 0,1 0,0 0,0 0,0 0,0 0,0 1,1-1,-1 1,0-1,1 1,-1 0,1 0,0 0,-1 0,1 1,0-1,-1 1,1-1,0 1,0 0,3 0,-4 1,0 0,0-1,0 1,0 0,0 1,0-1,0 0,0 1,0-1,0 1,-1-1,1 1,-1 0,1-1,-1 1,1 0,-1 0,0 0,0 0,0 1,0-1,-1 0,1 0,-1 0,1 1,-1-1,0 0,1 1,-1-1,0 0,-1 3,1 5,0-1,0 0,-1 0,-1 0,1 0,-6 16,5-21,0 0,-1 0,1 0,-1 0,0 0,0 0,0-1,-1 1,1-1,-1 0,1 0,-1 0,0-1,-1 1,1-1,-7 3,9-5,0 1,0-1,0 1,0-1,0 0,0 1,0-1,0 0,0-1,0 1,1 0,-1 0,0-1,0 1,0-1,0 0,0 1,1-1,-1 0,0 0,1 0,-1 0,0 0,1-1,0 1,-1 0,1-1,0 1,-1-1,1 0,0 1,0-1,1 0,-1 1,0-1,0 0,1 0,-1 0,1 0,0 0,-1 0,1-2,-1 1,1 1,-1-1,1 0,-1 0,1 1,0-1,0 0,1 0,-1 0,0 0,1 1,0-1,0 0,-1 1,2-1,-1 0,0 1,0-1,1 1,-1 0,1-1,0 1,0 0,0 0,4-3,-2 3,0-1,-1 2,2-1,-1 0,0 1,0 0,0-1,1 2,-1-1,0 0,1 1,-1 0,0 0,1 0,-1 1,6 1,14 3</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="23665.41">10082 1279,'1'-6,"1"0,0 0,1 1,-1-1,1 1,0-1,0 1,1 0,0 0,8-8,-4 3,29-38,-2-2,-3-1,-1-2,38-91,-58 121,-13 39,-12 39,-51 116,-2 8,57-146,2-1,1 2,-5 56,-4 155,12-211</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="24057.21">10003 1728,'4'0,"7"0,9 0,11 0,9 4,3 2,-2 0,-4-1,-3-2,-3-1,-2-1,-2 0,-1-1,0 0,-5 4,-5 1</inkml:trace>
 </inkml:ink>
@@ -2101,7 +2107,7 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">983 306,'-1'8,"-1"-1,0 1,0-1,-1 1,1-1,-2 0,1 0,-1 0,-6 8,-6 14,-63 138,7 3,8 3,-42 182,92-290,10-41,0-1,-2 0,-1-1,-1 1,-13 26,12-40,3-13</inkml:trace>
-  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.48">1036 411,'2'34,"2"1,1-1,11 38,1 7,93 795,-106-836</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="510.47">1036 411,'2'34,"2"1,1-1,11 38,1 7,93 795,-106-836</inkml:trace>
   <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2605.87">1512 279,'-4'-1,"1"-1,-1 1,1-1,-1 0,1 0,0 0,0 0,0 0,0-1,0 1,0-1,1 0,-4-5,-10-8,-17-12,-2 1,-52-31,73 50,0 1,-1 0,1 1,-1 1,-1 0,1 1,-1 0,0 2,1 0,-17 0,-1 2,-106 6,122-4,0 1,0 1,1 1,-1 0,1 1,-19 10,-80 49,2 5,3 5,-100 90,187-145,1 0,1 2,1 0,1 1,1 2,0-1,3 2,0 0,1 1,1 1,2 0,1 0,1 1,2 0,1 1,-4 45,4 21,9 123,-1-201,1-1,0 0,2 0,0-1,0 1,2-1,0 0,0-1,2 0,0 0,1 0,0-1,1-1,1 0,16 14,0-2,1-1,1-2,1-1,1-1,0-2,40 15,-31-17,1-2,1-1,0-3,79 9,180-9,-286-11,-1-1,0 0,0-2,0 1,0-2,-1 0,1-1,-1 0,21-14,13-11,54-45,-69 50,2-1,-1-2,-2-1,37-44,-54 56,-2-1,0 1,-2-2,0 0,-1 0,0-1,-2-1,7-28,-4 8,-3 0,-1-1,-2 0,-2 0,-2 0,-2 0,-2 0,-1 0,-3 0,-1 1,-2 0,-2 0,-26-61,5 34,-3 0,-67-94,82 134,-2 0,-1 1,-2 1,0 2,-2 1,0 1,-46-28,15 23,30 17</inkml:trace>
 </inkml:ink>
 </file>
@@ -2589,16 +2595,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:E15"/>
+  <dimension ref="B1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -2612,7 +2618,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B3" s="4" t="s">
         <v>4</v>
       </c>
@@ -2626,7 +2632,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>
@@ -2640,7 +2646,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>6</v>
       </c>
@@ -2654,7 +2660,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B6" s="4" t="s">
         <v>7</v>
       </c>
@@ -2662,13 +2668,13 @@
         <v>12</v>
       </c>
       <c r="D6" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E6" s="6">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
@@ -2682,7 +2688,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>9</v>
       </c>
@@ -2696,7 +2702,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:6" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B9" s="7" t="s">
         <v>10</v>
       </c>
@@ -2710,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>5</v>
       </c>
@@ -2718,7 +2724,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>6</v>
       </c>
@@ -2729,29 +2735,90 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>7</v>
       </c>
       <c r="C13" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>4</v>
       </c>
-      <c r="D14" t="s">
+      <c r="E14" t="s">
         <v>17</v>
       </c>
-      <c r="E14" s="10">
+      <c r="F14" s="10">
         <f>SUM(E3:E9)</f>
-        <v>26</v>
+        <v>29</v>
       </c>
     </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16" t="s">
         <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="C19" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>5</v>
+      </c>
+      <c r="C21">
+        <v>2</v>
+      </c>
+      <c r="F21" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>6</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>7</v>
+      </c>
+      <c r="C23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
